--- a/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_PM25_재비산.xlsx
+++ b/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>17.11287876267535</v>
+        <v>10.06737328273499</v>
       </c>
       <c r="C2">
-        <v>0.7740727008526525</v>
+        <v>0.4553809406080431</v>
       </c>
       <c r="D2">
-        <v>4.309213679643134</v>
+        <v>2.535076842983091</v>
       </c>
       <c r="E2">
-        <v>6.940240247523591</v>
+        <v>4.082889279626846</v>
       </c>
       <c r="F2">
-        <v>5.281941109738045</v>
+        <v>3.107324813469504</v>
       </c>
       <c r="G2">
-        <v>28.24992929477379</v>
+        <v>16.61921336354374</v>
       </c>
       <c r="H2">
-        <v>0.6218392712105527</v>
+        <v>0.3658231997058696</v>
       </c>
       <c r="I2">
-        <v>63.29011506641711</v>
+        <v>37.23308172267209</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>17.11287876267535</v>
+        <v>10.06737328273499</v>
       </c>
       <c r="C3">
-        <v>1.161109051278979</v>
+        <v>0.6830714109120647</v>
       </c>
       <c r="D3">
-        <v>5.196404731334367</v>
+        <v>3.05700442830314</v>
       </c>
       <c r="E3">
-        <v>6.811717279976862</v>
+        <v>4.007280218893014</v>
       </c>
       <c r="F3">
-        <v>6.267903450222481</v>
+        <v>3.687358778650478</v>
       </c>
       <c r="G3">
-        <v>26.97868247650897</v>
+        <v>15.87134876218427</v>
       </c>
       <c r="H3">
-        <v>0.4145595141403686</v>
+        <v>0.2438821331372464</v>
       </c>
       <c r="I3">
-        <v>63.94325526613738</v>
+        <v>37.61731901481521</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>20.26377706185861</v>
+        <v>11.92102220958881</v>
       </c>
       <c r="C4">
-        <v>0.9675908760658154</v>
+        <v>0.5692261757600539</v>
       </c>
       <c r="D4">
-        <v>5.830112625399535</v>
+        <v>3.429809846388888</v>
       </c>
       <c r="E4">
-        <v>7.839901020350728</v>
+        <v>4.612152704763658</v>
       </c>
       <c r="F4">
-        <v>7.042588146317396</v>
+        <v>4.143099751292671</v>
       </c>
       <c r="G4">
-        <v>16.3849589909688</v>
+        <v>9.639143750855373</v>
       </c>
       <c r="H4">
-        <v>1.243678542421105</v>
+        <v>0.7316463994117391</v>
       </c>
       <c r="I4">
-        <v>59.572607263382</v>
+        <v>35.04610083806119</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>23.20461547442968</v>
+        <v>13.65109454131906</v>
       </c>
       <c r="C5">
-        <v>0.6192581606821218</v>
+        <v>0.3643047524864346</v>
       </c>
       <c r="D5">
-        <v>5.956854204212568</v>
+        <v>3.504370930006038</v>
       </c>
       <c r="E5">
-        <v>8.482515858084389</v>
+        <v>4.99019800843281</v>
       </c>
       <c r="F5">
-        <v>5.10587640608011</v>
+        <v>3.003747319687186</v>
       </c>
       <c r="G5">
-        <v>11.29997171790952</v>
+        <v>6.6476853454175</v>
       </c>
       <c r="H5">
-        <v>0.5527460188538247</v>
+        <v>0.3251761775163284</v>
       </c>
       <c r="I5">
-        <v>55.22183784025221</v>
+        <v>32.48657707486535</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>27.9659729043066</v>
+        <v>16.45216403078705</v>
       </c>
       <c r="C6">
-        <v>1.354627226492142</v>
+        <v>0.7969166460640756</v>
       </c>
       <c r="D6">
-        <v>5.956854204212568</v>
+        <v>3.504370930006038</v>
       </c>
       <c r="E6">
-        <v>7.325809150163791</v>
+        <v>4.309716461828336</v>
       </c>
       <c r="F6">
-        <v>3.83821053974298</v>
+        <v>2.257989364454506</v>
       </c>
       <c r="G6">
-        <v>5.508736212480888</v>
+        <v>3.24074660589103</v>
       </c>
       <c r="H6">
-        <v>1.658238056561474</v>
+        <v>0.9755285325489854</v>
       </c>
       <c r="I6">
-        <v>53.60844829396045</v>
+        <v>31.53743257158002</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>26.20146985676399</v>
+        <v>15.41412063174891</v>
       </c>
       <c r="C7">
-        <v>0.7353690658100197</v>
+        <v>0.432611893577641</v>
       </c>
       <c r="D7">
-        <v>4.055730522017067</v>
+        <v>2.385954675748791</v>
       </c>
       <c r="E7">
-        <v>10.53888333883213</v>
+        <v>6.199942980174097</v>
       </c>
       <c r="F7">
-        <v>2.253628206821566</v>
+        <v>1.325791920413655</v>
       </c>
       <c r="G7">
-        <v>2.824992929477379</v>
+        <v>1.661921336354375</v>
       </c>
       <c r="H7">
-        <v>0.4145595141403686</v>
+        <v>0.2438821331372464</v>
       </c>
       <c r="I7">
-        <v>47.02463343386253</v>
+        <v>27.66422557115471</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>19.54957344737708</v>
+        <v>11.50086178616862</v>
       </c>
       <c r="C8">
-        <v>0.6192581606821218</v>
+        <v>0.3643047524864346</v>
       </c>
       <c r="D8">
-        <v>3.802247364391001</v>
+        <v>2.236832508514493</v>
       </c>
       <c r="E8">
-        <v>8.739561793177858</v>
+        <v>5.14141612990047</v>
       </c>
       <c r="F8">
-        <v>1.725434095847762</v>
+        <v>1.015059439066704</v>
       </c>
       <c r="G8">
-        <v>3.672490808320592</v>
+        <v>2.160497737260687</v>
       </c>
       <c r="H8">
-        <v>0.3454662617836404</v>
+        <v>0.2032351109477052</v>
       </c>
       <c r="I8">
-        <v>38.45403193158005</v>
+        <v>22.62220746434512</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>15.43239966977761</v>
+        <v>9.078760521746283</v>
       </c>
       <c r="C9">
-        <v>0.8514799709379176</v>
+        <v>0.5009190346688474</v>
       </c>
       <c r="D9">
-        <v>2.788314733886733</v>
+        <v>1.640343839577294</v>
       </c>
       <c r="E9">
-        <v>9.253653663364789</v>
+        <v>5.443852372835794</v>
       </c>
       <c r="F9">
-        <v>1.091601162679196</v>
+        <v>0.6421804614503639</v>
       </c>
       <c r="G9">
-        <v>2.824992929477379</v>
+        <v>1.661921336354375</v>
       </c>
       <c r="H9">
-        <v>0.2072797570701843</v>
+        <v>0.1219410665686232</v>
       </c>
       <c r="I9">
-        <v>32.44972188719381</v>
+        <v>19.08991863320158</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>11.41325383926384</v>
+        <v>6.714328335048294</v>
       </c>
       <c r="C10">
-        <v>0.5805545256394893</v>
+        <v>0.3415357054560323</v>
       </c>
       <c r="D10">
-        <v>0.7604494728781999</v>
+        <v>0.4473665017028985</v>
       </c>
       <c r="E10">
-        <v>7.068763215070326</v>
+        <v>4.158498340360675</v>
       </c>
       <c r="F10">
-        <v>1.056388221947609</v>
+        <v>0.6214649626939006</v>
       </c>
       <c r="G10">
-        <v>2.683743283003509</v>
+        <v>1.578825269536656</v>
       </c>
       <c r="H10">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="I10">
-        <v>23.63224581015971</v>
+        <v>13.902666136988</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>6.777932341354235</v>
+        <v>3.98740480265445</v>
       </c>
       <c r="C11">
-        <v>0.5418508905968565</v>
+        <v>0.3187666584256303</v>
       </c>
       <c r="D11">
-        <v>1.394157366943366</v>
+        <v>0.8201719197886471</v>
       </c>
       <c r="E11">
-        <v>4.112734961495462</v>
+        <v>2.419489943482575</v>
       </c>
       <c r="F11">
-        <v>1.021175281216022</v>
+        <v>0.6007494639374372</v>
       </c>
       <c r="G11">
-        <v>2.259994343581903</v>
+        <v>1.3295370690835</v>
       </c>
       <c r="H11">
-        <v>0.1381865047134562</v>
+        <v>0.08129404437908209</v>
       </c>
       <c r="I11">
-        <v>16.2460316899013</v>
+        <v>9.557413901751321</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>4.243209709566804</v>
+        <v>2.496247221496482</v>
       </c>
       <c r="C12">
-        <v>0.4644436205115914</v>
+        <v>0.2732285643648258</v>
       </c>
       <c r="D12">
-        <v>0.2534831576260667</v>
+        <v>0.1491221672342994</v>
       </c>
       <c r="E12">
-        <v>2.313413415841197</v>
+        <v>1.360963093208948</v>
       </c>
       <c r="F12">
-        <v>0.3873423480474567</v>
+        <v>0.2278704863210969</v>
       </c>
       <c r="G12">
-        <v>1.553746111212558</v>
+        <v>0.9140567349949059</v>
       </c>
       <c r="I12">
-        <v>9.215638362805675</v>
+        <v>5.421488267620559</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>2.492710654464986</v>
+        <v>1.466442262133248</v>
       </c>
       <c r="C13">
-        <v>0.2322218102557957</v>
+        <v>0.1366142821824129</v>
       </c>
       <c r="D13">
-        <v>0.2534831576260667</v>
+        <v>0.1491221672342994</v>
       </c>
       <c r="E13">
-        <v>1.156706707920599</v>
+        <v>0.6804815466044742</v>
       </c>
       <c r="F13">
-        <v>1.021175281216022</v>
+        <v>0.6007494639374372</v>
       </c>
       <c r="G13">
-        <v>2.259994343581903</v>
+        <v>1.3295370690835</v>
       </c>
       <c r="I13">
-        <v>7.416291955065372</v>
+        <v>4.362946791175371</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>1.512431183607969</v>
+        <v>0.8897514848898358</v>
       </c>
       <c r="C14">
-        <v>0.1935181752131631</v>
+        <v>0.1138452351520108</v>
       </c>
       <c r="D14">
-        <v>0.3802247364390999</v>
+        <v>0.2236832508514493</v>
       </c>
       <c r="E14">
-        <v>0.1285229675467332</v>
+        <v>0.07560906073383046</v>
       </c>
       <c r="F14">
-        <v>1.056388221947609</v>
+        <v>0.6214649626939006</v>
       </c>
       <c r="G14">
-        <v>1.836245404160296</v>
+        <v>1.080248868630344</v>
       </c>
       <c r="I14">
-        <v>5.10733068891487</v>
+        <v>3.00460286295137</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,28 +806,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>1.33037928187738</v>
+        <v>0.7826517691160593</v>
       </c>
       <c r="C15">
-        <v>0.3483327153836935</v>
+        <v>0.2049214232736194</v>
       </c>
       <c r="D15">
-        <v>0.2534831576260667</v>
+        <v>0.1491221672342994</v>
       </c>
       <c r="E15">
-        <v>0.3855689026401996</v>
+        <v>0.2268271822014913</v>
       </c>
       <c r="F15">
-        <v>0.6338329331685655</v>
+        <v>0.3728789776163404</v>
       </c>
       <c r="G15">
-        <v>1.836245404160296</v>
+        <v>1.080248868630344</v>
       </c>
       <c r="H15">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="I15">
-        <v>4.856935647212929</v>
+        <v>2.857297410261694</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,25 +835,25 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>1.176335365028421</v>
+        <v>0.6920289326920941</v>
       </c>
       <c r="C16">
-        <v>0.1161109051278979</v>
+        <v>0.06830714109120646</v>
       </c>
       <c r="D16">
-        <v>0.2534831576260667</v>
+        <v>0.1491221672342994</v>
       </c>
       <c r="E16">
-        <v>1.028183740373866</v>
+        <v>0.6048724858706437</v>
       </c>
       <c r="F16">
-        <v>0.5634070517053915</v>
+        <v>0.3314479801034136</v>
       </c>
       <c r="G16">
-        <v>1.836245404160296</v>
+        <v>1.080248868630344</v>
       </c>
       <c r="I16">
-        <v>4.973765624021939</v>
+        <v>2.926027575622001</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,28 +861,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>3.038866359656754</v>
+        <v>1.787741409454577</v>
       </c>
       <c r="C17">
-        <v>0.3483327153836935</v>
+        <v>0.2049214232736194</v>
       </c>
       <c r="D17">
-        <v>1.013932630504267</v>
+        <v>0.5964886689371978</v>
       </c>
       <c r="E17">
-        <v>0.7711378052803992</v>
+        <v>0.4536543644029825</v>
       </c>
       <c r="F17">
-        <v>1.373304688531892</v>
+        <v>0.8079044515020709</v>
       </c>
       <c r="G17">
-        <v>3.248741868898986</v>
+        <v>1.911209536807531</v>
       </c>
       <c r="H17">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="I17">
-        <v>9.863409320612719</v>
+        <v>5.80256687656752</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -890,28 +890,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>7.954267706382653</v>
+        <v>4.679433735346541</v>
       </c>
       <c r="C18">
-        <v>0.2709254452984283</v>
+        <v>0.1593833292128151</v>
       </c>
       <c r="D18">
-        <v>2.2813484186346</v>
+        <v>1.342099505108695</v>
       </c>
       <c r="E18">
-        <v>4.626826831682394</v>
+        <v>2.721926186417897</v>
       </c>
       <c r="F18">
-        <v>1.619795273653001</v>
+        <v>0.9529129427973143</v>
       </c>
       <c r="G18">
-        <v>7.203731970167315</v>
+        <v>4.237899407703655</v>
       </c>
       <c r="H18">
-        <v>0.2763730094269123</v>
+        <v>0.1625880887581642</v>
       </c>
       <c r="I18">
-        <v>24.2332686552453</v>
+        <v>14.25624319534508</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>15.30636373781029</v>
+        <v>9.004614564672133</v>
       </c>
       <c r="C19">
-        <v>0.6579617957247544</v>
+        <v>0.3870737995168366</v>
       </c>
       <c r="D19">
-        <v>3.295281049138867</v>
+        <v>1.938588174045894</v>
       </c>
       <c r="E19">
-        <v>9.12513069581806</v>
+        <v>5.368243312101962</v>
       </c>
       <c r="F19">
-        <v>3.098738784379654</v>
+        <v>1.822963890568775</v>
       </c>
       <c r="G19">
-        <v>10.16997454611857</v>
+        <v>5.982916810875747</v>
       </c>
       <c r="H19">
-        <v>0.4145595141403686</v>
+        <v>0.2438821331372464</v>
       </c>
       <c r="I19">
-        <v>42.06801012313056</v>
+        <v>24.74828268491859</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>26.34150978117214</v>
+        <v>15.49650502849796</v>
       </c>
       <c r="C20">
-        <v>0.7353690658100197</v>
+        <v>0.432611893577641</v>
       </c>
       <c r="D20">
-        <v>4.435955258456166</v>
+        <v>2.609637926600241</v>
       </c>
       <c r="E20">
-        <v>11.05297520901906</v>
+        <v>6.502379223109418</v>
       </c>
       <c r="F20">
-        <v>3.83821053974298</v>
+        <v>2.257989364454506</v>
       </c>
       <c r="G20">
-        <v>14.26621429386077</v>
+        <v>8.392702748589592</v>
       </c>
       <c r="H20">
-        <v>0.4145595141403686</v>
+        <v>0.2438821331372464</v>
       </c>
       <c r="I20">
-        <v>61.0847936622015</v>
+        <v>35.93570831796661</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>29.49240808035541</v>
+        <v>17.3501539553518</v>
       </c>
       <c r="C21">
-        <v>0.812776335895285</v>
+        <v>0.4781499876384451</v>
       </c>
       <c r="D21">
-        <v>5.830112625399535</v>
+        <v>3.429809846388888</v>
       </c>
       <c r="E21">
-        <v>9.382176630911527</v>
+        <v>5.519461433569623</v>
       </c>
       <c r="F21">
-        <v>4.366404650716784</v>
+        <v>2.568721845801456</v>
       </c>
       <c r="G21">
-        <v>17.09120722333815</v>
+        <v>10.05462408494397</v>
       </c>
       <c r="H21">
-        <v>2.832823346625852</v>
+        <v>1.666527909771183</v>
       </c>
       <c r="I21">
-        <v>69.80790889324253</v>
+        <v>41.06744906346537</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>20.59987288043817</v>
+        <v>12.11874476178656</v>
       </c>
       <c r="C22">
-        <v>1.277219956406877</v>
+        <v>0.7513785520032713</v>
       </c>
       <c r="D22">
-        <v>5.830112625399535</v>
+        <v>3.429809846388888</v>
       </c>
       <c r="E22">
-        <v>8.482515858084389</v>
+        <v>4.99019800843281</v>
       </c>
       <c r="F22">
-        <v>5.986199924369786</v>
+        <v>3.52163478859877</v>
       </c>
       <c r="G22">
-        <v>30.50992363835568</v>
+        <v>17.94875043262725</v>
       </c>
       <c r="H22">
-        <v>0.4145595141403686</v>
+        <v>0.2438821331372464</v>
       </c>
       <c r="I22">
-        <v>73.10040439719481</v>
+        <v>43.0043985229748</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>14.49413217624304</v>
+        <v>8.526785063527587</v>
       </c>
       <c r="C23">
-        <v>0.9288872410231829</v>
+        <v>0.5464571287296517</v>
       </c>
       <c r="D23">
-        <v>4.689438416082234</v>
+        <v>2.75876009383454</v>
       </c>
       <c r="E23">
-        <v>6.940240247523591</v>
+        <v>4.082889279626846</v>
       </c>
       <c r="F23">
-        <v>7.570782257291199</v>
+        <v>4.453832232639621</v>
       </c>
       <c r="G23">
-        <v>27.96743000182605</v>
+        <v>16.45302122990831</v>
       </c>
       <c r="H23">
-        <v>0.8291190282807372</v>
+        <v>0.4877642662744927</v>
       </c>
       <c r="I23">
-        <v>63.42002936827003</v>
+        <v>37.30950929454105</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>16.32865518598974</v>
+        <v>9.606020660940258</v>
       </c>
       <c r="C24">
-        <v>1.432034496577407</v>
+        <v>0.8424547401248796</v>
       </c>
       <c r="D24">
-        <v>3.802247364391001</v>
+        <v>2.236832508514493</v>
       </c>
       <c r="E24">
-        <v>6.554671344883392</v>
+        <v>3.856062097425353</v>
       </c>
       <c r="F24">
-        <v>7.007375205585808</v>
+        <v>4.122384252536206</v>
       </c>
       <c r="G24">
-        <v>35.0299123255195</v>
+        <v>20.60782457079425</v>
       </c>
       <c r="H24">
-        <v>1.796424561274931</v>
+        <v>1.056822576928067</v>
       </c>
       <c r="I24">
-        <v>71.95132048422178</v>
+        <v>42.32840140726351</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>15.25034776804702</v>
+        <v>8.971660805972512</v>
       </c>
       <c r="C25">
-        <v>1.315923591449509</v>
+        <v>0.7741475990336733</v>
       </c>
       <c r="D25">
-        <v>6.210337361838633</v>
+        <v>3.653493097240338</v>
       </c>
       <c r="E25">
-        <v>8.611038825631125</v>
+        <v>5.06580706916664</v>
       </c>
       <c r="F25">
-        <v>6.021412865101372</v>
+        <v>3.542350287355234</v>
       </c>
       <c r="G25">
-        <v>34.32366409315015</v>
+        <v>20.19234423670565</v>
       </c>
       <c r="H25">
-        <v>0.8291190282807372</v>
+        <v>0.4877642662744927</v>
       </c>
       <c r="I25">
-        <v>72.56184353349856</v>
+        <v>42.68756736174854</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>15.53042761686332</v>
+        <v>9.136429599470624</v>
       </c>
       <c r="C26">
-        <v>0.812776335895285</v>
+        <v>0.4781499876384451</v>
       </c>
       <c r="D26">
-        <v>4.435955258456166</v>
+        <v>2.609637926600241</v>
       </c>
       <c r="E26">
-        <v>6.040579474696461</v>
+        <v>3.553625854490031</v>
       </c>
       <c r="F26">
-        <v>6.091838746564546</v>
+        <v>3.58378128486816</v>
       </c>
       <c r="G26">
-        <v>37.57240596204915</v>
+        <v>22.10355377351318</v>
       </c>
       <c r="H26">
-        <v>0.8291190282807372</v>
+        <v>0.4877642662744927</v>
       </c>
       <c r="I26">
-        <v>71.31310242280567</v>
+        <v>41.95294269285518</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>17.60301849810387</v>
+        <v>10.35571867135669</v>
       </c>
       <c r="C27">
-        <v>0.5805545256394893</v>
+        <v>0.3415357054560323</v>
       </c>
       <c r="D27">
-        <v>8.745168938099299</v>
+        <v>5.144714769583333</v>
       </c>
       <c r="E27">
-        <v>6.683194312430128</v>
+        <v>3.931671158159183</v>
       </c>
       <c r="F27">
-        <v>6.091838746564546</v>
+        <v>3.58378128486816</v>
       </c>
       <c r="G27">
-        <v>23.72994060760998</v>
+        <v>13.96013922537675</v>
       </c>
       <c r="H27">
-        <v>1.381865047134561</v>
+        <v>0.812940443790821</v>
       </c>
       <c r="I27">
-        <v>64.81558067558187</v>
+        <v>38.13050125859097</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>18.33122610502621</v>
+        <v>10.78411753445179</v>
       </c>
       <c r="C28">
-        <v>1.083701781193713</v>
+        <v>0.6375333168512606</v>
       </c>
       <c r="D28">
-        <v>4.309213679643134</v>
+        <v>2.535076842983091</v>
       </c>
       <c r="E28">
-        <v>6.297625409789927</v>
+        <v>3.704843975957692</v>
       </c>
       <c r="F28">
-        <v>6.514394035343591</v>
+        <v>3.83236726994572</v>
       </c>
       <c r="G28">
-        <v>30.22742434540795</v>
+        <v>17.7825582989918</v>
       </c>
       <c r="H28">
-        <v>1.036398785350922</v>
+        <v>0.6097053328431158</v>
       </c>
       <c r="I28">
-        <v>67.79998414175546</v>
+        <v>39.88620257202448</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>19.22748162123836</v>
+        <v>11.31137767364578</v>
       </c>
       <c r="C29">
-        <v>0.5418508905968565</v>
+        <v>0.3187666584256303</v>
       </c>
       <c r="D29">
-        <v>6.590562098277735</v>
+        <v>3.877176348091787</v>
       </c>
       <c r="E29">
-        <v>8.611038825631125</v>
+        <v>5.06580706916664</v>
       </c>
       <c r="F29">
-        <v>5.880561102175025</v>
+        <v>3.45948829232938</v>
       </c>
       <c r="G29">
-        <v>22.7411930822929</v>
+        <v>13.37846675765272</v>
       </c>
       <c r="H29">
-        <v>1.036398785350922</v>
+        <v>0.6097053328431158</v>
       </c>
       <c r="I29">
-        <v>64.62908640556292</v>
+        <v>38.02078813215504</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>25.69732612889466</v>
+        <v>15.1175368034523</v>
       </c>
       <c r="C30">
-        <v>0.9675908760658154</v>
+        <v>0.5692261757600539</v>
       </c>
       <c r="D30">
-        <v>5.196404731334367</v>
+        <v>3.05700442830314</v>
       </c>
       <c r="E30">
-        <v>8.225469922990925</v>
+        <v>4.838979886965149</v>
       </c>
       <c r="F30">
-        <v>3.83821053974298</v>
+        <v>2.257989364454506</v>
       </c>
       <c r="G30">
-        <v>16.94995757686427</v>
+        <v>9.971528018126246</v>
       </c>
       <c r="H30">
-        <v>0.8982122806374654</v>
+        <v>0.5284112884640336</v>
       </c>
       <c r="I30">
-        <v>61.7731720565305</v>
+        <v>36.34067596552543</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>24.91310255220904</v>
+        <v>14.65618418165757</v>
       </c>
       <c r="C31">
-        <v>1.432034496577407</v>
+        <v>0.8424547401248796</v>
       </c>
       <c r="D31">
-        <v>4.055730522017067</v>
+        <v>2.385954675748791</v>
       </c>
       <c r="E31">
-        <v>12.46672785203313</v>
+        <v>7.334078891181552</v>
       </c>
       <c r="F31">
-        <v>1.831072918042523</v>
+        <v>1.077205935336094</v>
       </c>
       <c r="G31">
-        <v>8.616228434906006</v>
+        <v>5.068860075880845</v>
       </c>
       <c r="H31">
-        <v>0.1381865047134562</v>
+        <v>0.08129404437908209</v>
       </c>
       <c r="I31">
-        <v>53.45308328049863</v>
+        <v>31.44603254430881</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>21.32808048736053</v>
+        <v>12.54714362488166</v>
       </c>
       <c r="C32">
-        <v>1.741663576918468</v>
+        <v>1.024607116368097</v>
       </c>
       <c r="D32">
-        <v>2.915056312699767</v>
+        <v>1.714904923194444</v>
       </c>
       <c r="E32">
-        <v>10.92445224147232</v>
+        <v>6.426770162375589</v>
       </c>
       <c r="F32">
-        <v>1.901498799505696</v>
+        <v>1.118636932849021</v>
       </c>
       <c r="G32">
-        <v>7.203731970167315</v>
+        <v>4.237899407703655</v>
       </c>
       <c r="H32">
-        <v>0.5527460188538247</v>
+        <v>0.3251761775163284</v>
       </c>
       <c r="I32">
-        <v>46.56722940697792</v>
+        <v>27.3951383448888</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>15.48841563954087</v>
+        <v>9.111714280445909</v>
       </c>
       <c r="C33">
-        <v>1.819070847003732</v>
+        <v>1.070145210428902</v>
       </c>
       <c r="D33">
-        <v>3.295281049138867</v>
+        <v>1.938588174045894</v>
       </c>
       <c r="E33">
-        <v>10.92445224147232</v>
+        <v>6.426770162375589</v>
       </c>
       <c r="F33">
-        <v>1.267665866337131</v>
+        <v>0.7457579552326807</v>
       </c>
       <c r="G33">
-        <v>4.519988687163806</v>
+        <v>2.659074138166999</v>
       </c>
       <c r="H33">
-        <v>0.5527460188538247</v>
+        <v>0.3251761775163284</v>
       </c>
       <c r="I33">
-        <v>37.86762034951055</v>
+        <v>22.2772260982123</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,25 +1354,25 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>11.5672977561128</v>
+        <v>6.80495117147226</v>
       </c>
       <c r="C34">
-        <v>1.393330861534774</v>
+        <v>0.8196856930944776</v>
       </c>
       <c r="D34">
-        <v>1.9011236821955</v>
+        <v>1.118416254257246</v>
       </c>
       <c r="E34">
-        <v>7.197286182617058</v>
+        <v>4.234107401094507</v>
       </c>
       <c r="F34">
-        <v>0.7394717553633264</v>
+        <v>0.4350254738857304</v>
       </c>
       <c r="G34">
-        <v>4.519988687163806</v>
+        <v>2.659074138166999</v>
       </c>
       <c r="I34">
-        <v>27.31849892498727</v>
+        <v>16.07126013197122</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>8.066299645909169</v>
+        <v>4.745341252745788</v>
       </c>
       <c r="C35">
-        <v>0.6966654307673871</v>
+        <v>0.4098428465472388</v>
       </c>
       <c r="D35">
-        <v>1.267415788130333</v>
+        <v>0.7456108361714974</v>
       </c>
       <c r="E35">
-        <v>5.912056507149727</v>
+        <v>3.478016793756201</v>
       </c>
       <c r="F35">
-        <v>0.7746846960949134</v>
+        <v>0.4557409726421938</v>
       </c>
       <c r="G35">
-        <v>2.683743283003509</v>
+        <v>1.578825269536656</v>
       </c>
       <c r="H35">
-        <v>0.1381865047134562</v>
+        <v>0.08129404437908209</v>
       </c>
       <c r="I35">
-        <v>19.53905185576849</v>
+        <v>11.49467201577866</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>4.607313513027979</v>
+        <v>2.710446653044034</v>
       </c>
       <c r="C36">
-        <v>1.509441766662672</v>
+        <v>0.8879928341856842</v>
       </c>
       <c r="D36">
-        <v>0.1267415788130334</v>
+        <v>0.07456108361714972</v>
       </c>
       <c r="E36">
-        <v>2.827505286028131</v>
+        <v>1.66339933614427</v>
       </c>
       <c r="F36">
-        <v>2.288841147553153</v>
+        <v>1.346507419170118</v>
       </c>
       <c r="G36">
-        <v>3.81374045479446</v>
+        <v>2.243593804078406</v>
       </c>
       <c r="H36">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="I36">
-        <v>15.24267699923616</v>
+        <v>8.967148152429203</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>2.436694684701728</v>
+        <v>1.433488503433624</v>
       </c>
       <c r="C37">
-        <v>0.7740727008526525</v>
+        <v>0.4553809406080431</v>
       </c>
       <c r="D37">
-        <v>0.1267415788130334</v>
+        <v>0.07456108361714972</v>
       </c>
       <c r="E37">
-        <v>1.028183740373866</v>
+        <v>0.6048724858706437</v>
       </c>
       <c r="F37">
-        <v>1.443730569995066</v>
+        <v>0.8493354490149976</v>
       </c>
       <c r="G37">
-        <v>2.966242575951247</v>
+        <v>1.745017403172094</v>
       </c>
       <c r="H37">
-        <v>0.2072797570701843</v>
+        <v>0.1219410665686232</v>
       </c>
       <c r="I37">
-        <v>8.982945607757777</v>
+        <v>5.284596932285175</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,25 +1467,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>1.750499055101816</v>
+        <v>1.029804959363235</v>
       </c>
       <c r="C38">
-        <v>0.1935181752131631</v>
+        <v>0.1138452351520108</v>
       </c>
       <c r="D38">
-        <v>0.2534831576260667</v>
+        <v>0.1491221672342994</v>
       </c>
       <c r="F38">
-        <v>0.9155364590212615</v>
+        <v>0.5386029676680472</v>
       </c>
       <c r="G38">
-        <v>2.824992929477379</v>
+        <v>1.661921336354375</v>
       </c>
       <c r="H38">
-        <v>0.3454662617836404</v>
+        <v>0.2032351109477052</v>
       </c>
       <c r="I38">
-        <v>6.283496038223326</v>
+        <v>3.696531776719673</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1493,25 +1493,25 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>1.274363312114123</v>
+        <v>0.7496980104164357</v>
       </c>
       <c r="C39">
-        <v>0.2709254452984283</v>
+        <v>0.1593833292128151</v>
       </c>
       <c r="D39">
-        <v>0.6337078940651664</v>
+        <v>0.3728054180857487</v>
       </c>
       <c r="F39">
-        <v>0.4225552887790437</v>
+        <v>0.2485859850775602</v>
       </c>
       <c r="G39">
-        <v>2.542493636529642</v>
+        <v>1.495729202718937</v>
       </c>
       <c r="H39">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="I39">
-        <v>5.213138829143131</v>
+        <v>3.066848967701038</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1519,28 +1519,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>1.288367304554936</v>
+        <v>0.7579364500913411</v>
       </c>
       <c r="C40">
-        <v>0.2322218102557957</v>
+        <v>0.1366142821824129</v>
       </c>
       <c r="D40">
-        <v>0.2534831576260667</v>
+        <v>0.1491221672342994</v>
       </c>
       <c r="E40">
-        <v>1.156706707920599</v>
+        <v>0.6804815466044742</v>
       </c>
       <c r="F40">
-        <v>0.7042588146317394</v>
+        <v>0.4143099751292671</v>
       </c>
       <c r="G40">
-        <v>2.259994343581903</v>
+        <v>1.3295370690835</v>
       </c>
       <c r="H40">
-        <v>0.1381865047134562</v>
+        <v>0.08129404437908209</v>
       </c>
       <c r="I40">
-        <v>6.033218643284496</v>
+        <v>3.549295534704376</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1548,28 +1548,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>3.290938223591415</v>
+        <v>1.936033323602883</v>
       </c>
       <c r="C41">
-        <v>0.3096290803410609</v>
+        <v>0.1821523762432173</v>
       </c>
       <c r="D41">
-        <v>0.5069663152521334</v>
+        <v>0.2982443344685989</v>
       </c>
       <c r="E41">
-        <v>0.8996607728271323</v>
+        <v>0.5292634251368133</v>
       </c>
       <c r="F41">
-        <v>0.6690458739001525</v>
+        <v>0.3935944763728037</v>
       </c>
       <c r="G41">
-        <v>3.531241161846724</v>
+        <v>2.077401670442968</v>
       </c>
       <c r="H41">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="I41">
-        <v>9.276574680115345</v>
+        <v>5.457336628456825</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,28 +1577,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>7.632175880243918</v>
+        <v>4.489949622823707</v>
       </c>
       <c r="C42">
-        <v>0.6192581606821218</v>
+        <v>0.3643047524864346</v>
       </c>
       <c r="D42">
-        <v>1.9011236821955</v>
+        <v>1.118416254257246</v>
       </c>
       <c r="E42">
-        <v>5.140918701869327</v>
+        <v>3.024362429353218</v>
       </c>
       <c r="F42">
-        <v>1.725434095847762</v>
+        <v>1.015059439066704</v>
       </c>
       <c r="G42">
-        <v>6.214984444850233</v>
+        <v>3.656226939979624</v>
       </c>
       <c r="H42">
-        <v>0.4145595141403686</v>
+        <v>0.2438821331372464</v>
       </c>
       <c r="I42">
-        <v>23.64845447982923</v>
+        <v>13.91220157110418</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1606,28 +1606,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>15.05429187387561</v>
+        <v>8.856322650523826</v>
       </c>
       <c r="C43">
-        <v>0.6579617957247544</v>
+        <v>0.3870737995168366</v>
       </c>
       <c r="D43">
-        <v>2.154606839821567</v>
+        <v>1.267538421491545</v>
       </c>
       <c r="E43">
-        <v>8.996607728271321</v>
+        <v>5.292634251368133</v>
       </c>
       <c r="F43">
-        <v>2.957887021453306</v>
+        <v>1.740101895542922</v>
       </c>
       <c r="G43">
-        <v>7.768730556062793</v>
+        <v>4.570283674974529</v>
       </c>
       <c r="H43">
-        <v>0.4145595141403686</v>
+        <v>0.2438821331372464</v>
       </c>
       <c r="I43">
-        <v>38.00464532934973</v>
+        <v>22.35783682655504</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1635,28 +1635,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>24.56300274118869</v>
+        <v>14.45022318978492</v>
       </c>
       <c r="C44">
-        <v>0.5418508905968565</v>
+        <v>0.3187666584256303</v>
       </c>
       <c r="D44">
-        <v>4.816179994895266</v>
+        <v>2.83332117745169</v>
       </c>
       <c r="E44">
-        <v>11.18149817656579</v>
+        <v>6.577988283843251</v>
       </c>
       <c r="F44">
-        <v>3.943849361937741</v>
+        <v>2.320135860723896</v>
       </c>
       <c r="G44">
-        <v>12.71246818264821</v>
+        <v>7.478646013594684</v>
       </c>
       <c r="H44">
-        <v>0.8291190282807372</v>
+        <v>0.4877642662744927</v>
       </c>
       <c r="I44">
-        <v>58.58796837611327</v>
+        <v>34.46684545009857</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1664,28 +1664,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>28.65216853390652</v>
+        <v>16.85584757485745</v>
       </c>
       <c r="C45">
-        <v>0.812776335895285</v>
+        <v>0.4781499876384451</v>
       </c>
       <c r="D45">
-        <v>5.449887888960432</v>
+        <v>3.206126595537439</v>
       </c>
       <c r="E45">
-        <v>9.639222566004992</v>
+        <v>5.670679555037285</v>
       </c>
       <c r="F45">
-        <v>3.943849361937741</v>
+        <v>2.320135860723896</v>
       </c>
       <c r="G45">
-        <v>14.83121287975624</v>
+        <v>8.725087015860467</v>
       </c>
       <c r="H45">
-        <v>1.589144804204746</v>
+        <v>0.9348815103594442</v>
       </c>
       <c r="I45">
-        <v>64.91826237066597</v>
+        <v>38.19090810001443</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1693,28 +1693,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>24.11487498308262</v>
+        <v>14.18659312018794</v>
       </c>
       <c r="C46">
-        <v>1.122405416236346</v>
+        <v>0.6603023638816625</v>
       </c>
       <c r="D46">
-        <v>6.844045255903801</v>
+        <v>4.026298515326086</v>
       </c>
       <c r="E46">
-        <v>8.611038825631125</v>
+        <v>5.06580706916664</v>
       </c>
       <c r="F46">
-        <v>7.535569316559611</v>
+        <v>4.433116733883158</v>
       </c>
       <c r="G46">
-        <v>28.6736782341954</v>
+        <v>16.8685015639969</v>
       </c>
       <c r="H46">
-        <v>1.243678542421105</v>
+        <v>0.7316463994117391</v>
       </c>
       <c r="I46">
-        <v>78.14529057403001</v>
+        <v>45.97226576585413</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1722,28 +1722,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>16.52471108016114</v>
+        <v>9.721358816388939</v>
       </c>
       <c r="C47">
-        <v>1.393330861534774</v>
+        <v>0.8196856930944776</v>
       </c>
       <c r="D47">
-        <v>3.928988943204032</v>
+        <v>2.311393592131642</v>
       </c>
       <c r="E47">
-        <v>7.582855085257261</v>
+        <v>4.460934583295996</v>
       </c>
       <c r="F47">
-        <v>9.225790471675788</v>
+        <v>5.427460674193399</v>
       </c>
       <c r="G47">
-        <v>20.19869944576325</v>
+        <v>11.88273755493378</v>
       </c>
       <c r="H47">
-        <v>1.174585290064378</v>
+        <v>0.6909993772221978</v>
       </c>
       <c r="I47">
-        <v>60.02896117766063</v>
+        <v>35.31457029126044</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1751,28 +1751,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>18.12116621841399</v>
+        <v>10.66054093932821</v>
       </c>
       <c r="C48">
-        <v>1.586849036747937</v>
+        <v>0.9335309282464883</v>
       </c>
       <c r="D48">
-        <v>9.505618410977501</v>
+        <v>5.59208127128623</v>
       </c>
       <c r="E48">
-        <v>8.09694695544419</v>
+        <v>4.76337082623132</v>
       </c>
       <c r="F48">
-        <v>8.908874005091505</v>
+        <v>5.24102118538523</v>
       </c>
       <c r="G48">
-        <v>26.41368389061351</v>
+        <v>15.5389644949134</v>
       </c>
       <c r="H48">
-        <v>1.658238056561474</v>
+        <v>0.9755285325489854</v>
       </c>
       <c r="I48">
-        <v>74.29137657385012</v>
+        <v>43.70503817793988</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1780,28 +1780,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>15.25034776804702</v>
+        <v>8.971660805972512</v>
       </c>
       <c r="C49">
-        <v>1.315923591449509</v>
+        <v>0.7741475990336733</v>
       </c>
       <c r="D49">
-        <v>6.210337361838633</v>
+        <v>3.653493097240338</v>
       </c>
       <c r="E49">
-        <v>8.611038825631125</v>
+        <v>5.06580706916664</v>
       </c>
       <c r="F49">
-        <v>6.021412865101372</v>
+        <v>3.542350287355234</v>
       </c>
       <c r="G49">
-        <v>34.32366409315015</v>
+        <v>20.19234423670565</v>
       </c>
       <c r="H49">
-        <v>0.8291190282807372</v>
+        <v>0.4877642662744927</v>
       </c>
       <c r="I49">
-        <v>72.56184353349856</v>
+        <v>42.68756736174854</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_PM25_재비산.xlsx
+++ b/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>10.06737328273499</v>
+        <v>17.11287876267535</v>
       </c>
       <c r="C2">
-        <v>0.4553809406080431</v>
+        <v>0.7740727008526525</v>
       </c>
       <c r="D2">
-        <v>2.535076842983091</v>
+        <v>4.309213679643134</v>
       </c>
       <c r="E2">
-        <v>4.082889279626846</v>
+        <v>6.940240247523591</v>
       </c>
       <c r="F2">
-        <v>3.107324813469504</v>
+        <v>5.281941109738045</v>
       </c>
       <c r="G2">
-        <v>16.61921336354374</v>
+        <v>28.24992929477379</v>
       </c>
       <c r="H2">
-        <v>0.3658231997058696</v>
+        <v>0.6218392712105527</v>
       </c>
       <c r="I2">
-        <v>37.23308172267209</v>
+        <v>63.29011506641711</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>10.06737328273499</v>
+        <v>17.11287876267535</v>
       </c>
       <c r="C3">
-        <v>0.6830714109120647</v>
+        <v>1.161109051278979</v>
       </c>
       <c r="D3">
-        <v>3.05700442830314</v>
+        <v>5.196404731334367</v>
       </c>
       <c r="E3">
-        <v>4.007280218893014</v>
+        <v>6.811717279976862</v>
       </c>
       <c r="F3">
-        <v>3.687358778650478</v>
+        <v>6.267903450222481</v>
       </c>
       <c r="G3">
-        <v>15.87134876218427</v>
+        <v>26.97868247650897</v>
       </c>
       <c r="H3">
-        <v>0.2438821331372464</v>
+        <v>0.4145595141403686</v>
       </c>
       <c r="I3">
-        <v>37.61731901481521</v>
+        <v>63.94325526613738</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>11.92102220958881</v>
+        <v>20.26377706185861</v>
       </c>
       <c r="C4">
-        <v>0.5692261757600539</v>
+        <v>0.9675908760658154</v>
       </c>
       <c r="D4">
-        <v>3.429809846388888</v>
+        <v>5.830112625399535</v>
       </c>
       <c r="E4">
-        <v>4.612152704763658</v>
+        <v>7.839901020350728</v>
       </c>
       <c r="F4">
-        <v>4.143099751292671</v>
+        <v>7.042588146317396</v>
       </c>
       <c r="G4">
-        <v>9.639143750855373</v>
+        <v>16.3849589909688</v>
       </c>
       <c r="H4">
-        <v>0.7316463994117391</v>
+        <v>1.243678542421105</v>
       </c>
       <c r="I4">
-        <v>35.04610083806119</v>
+        <v>59.572607263382</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>13.65109454131906</v>
+        <v>23.20461547442968</v>
       </c>
       <c r="C5">
-        <v>0.3643047524864346</v>
+        <v>0.6192581606821218</v>
       </c>
       <c r="D5">
-        <v>3.504370930006038</v>
+        <v>5.956854204212568</v>
       </c>
       <c r="E5">
-        <v>4.99019800843281</v>
+        <v>8.482515858084389</v>
       </c>
       <c r="F5">
-        <v>3.003747319687186</v>
+        <v>5.10587640608011</v>
       </c>
       <c r="G5">
-        <v>6.6476853454175</v>
+        <v>11.29997171790952</v>
       </c>
       <c r="H5">
-        <v>0.3251761775163284</v>
+        <v>0.5527460188538247</v>
       </c>
       <c r="I5">
-        <v>32.48657707486535</v>
+        <v>55.22183784025221</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>16.45216403078705</v>
+        <v>27.9659729043066</v>
       </c>
       <c r="C6">
-        <v>0.7969166460640756</v>
+        <v>1.354627226492142</v>
       </c>
       <c r="D6">
-        <v>3.504370930006038</v>
+        <v>5.956854204212568</v>
       </c>
       <c r="E6">
-        <v>4.309716461828336</v>
+        <v>7.325809150163791</v>
       </c>
       <c r="F6">
-        <v>2.257989364454506</v>
+        <v>3.83821053974298</v>
       </c>
       <c r="G6">
-        <v>3.24074660589103</v>
+        <v>5.508736212480888</v>
       </c>
       <c r="H6">
-        <v>0.9755285325489854</v>
+        <v>1.658238056561474</v>
       </c>
       <c r="I6">
-        <v>31.53743257158002</v>
+        <v>53.60844829396045</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>15.41412063174891</v>
+        <v>26.20146985676399</v>
       </c>
       <c r="C7">
-        <v>0.432611893577641</v>
+        <v>0.7353690658100197</v>
       </c>
       <c r="D7">
-        <v>2.385954675748791</v>
+        <v>4.055730522017067</v>
       </c>
       <c r="E7">
-        <v>6.199942980174097</v>
+        <v>10.53888333883213</v>
       </c>
       <c r="F7">
-        <v>1.325791920413655</v>
+        <v>2.253628206821566</v>
       </c>
       <c r="G7">
-        <v>1.661921336354375</v>
+        <v>2.824992929477379</v>
       </c>
       <c r="H7">
-        <v>0.2438821331372464</v>
+        <v>0.4145595141403686</v>
       </c>
       <c r="I7">
-        <v>27.66422557115471</v>
+        <v>47.02463343386253</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>11.50086178616862</v>
+        <v>19.54957344737708</v>
       </c>
       <c r="C8">
-        <v>0.3643047524864346</v>
+        <v>0.6192581606821218</v>
       </c>
       <c r="D8">
-        <v>2.236832508514493</v>
+        <v>3.802247364391001</v>
       </c>
       <c r="E8">
-        <v>5.14141612990047</v>
+        <v>8.739561793177858</v>
       </c>
       <c r="F8">
-        <v>1.015059439066704</v>
+        <v>1.725434095847762</v>
       </c>
       <c r="G8">
-        <v>2.160497737260687</v>
+        <v>3.672490808320592</v>
       </c>
       <c r="H8">
-        <v>0.2032351109477052</v>
+        <v>0.3454662617836404</v>
       </c>
       <c r="I8">
-        <v>22.62220746434512</v>
+        <v>38.45403193158005</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>9.078760521746283</v>
+        <v>15.43239966977761</v>
       </c>
       <c r="C9">
-        <v>0.5009190346688474</v>
+        <v>0.8514799709379176</v>
       </c>
       <c r="D9">
-        <v>1.640343839577294</v>
+        <v>2.788314733886733</v>
       </c>
       <c r="E9">
-        <v>5.443852372835794</v>
+        <v>9.253653663364789</v>
       </c>
       <c r="F9">
-        <v>0.6421804614503639</v>
+        <v>1.091601162679196</v>
       </c>
       <c r="G9">
-        <v>1.661921336354375</v>
+        <v>2.824992929477379</v>
       </c>
       <c r="H9">
-        <v>0.1219410665686232</v>
+        <v>0.2072797570701843</v>
       </c>
       <c r="I9">
-        <v>19.08991863320158</v>
+        <v>32.44972188719381</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>6.714328335048294</v>
+        <v>11.41325383926384</v>
       </c>
       <c r="C10">
-        <v>0.3415357054560323</v>
+        <v>0.5805545256394893</v>
       </c>
       <c r="D10">
-        <v>0.4473665017028985</v>
+        <v>0.7604494728781999</v>
       </c>
       <c r="E10">
-        <v>4.158498340360675</v>
+        <v>7.068763215070326</v>
       </c>
       <c r="F10">
-        <v>0.6214649626939006</v>
+        <v>1.056388221947609</v>
       </c>
       <c r="G10">
-        <v>1.578825269536656</v>
+        <v>2.683743283003509</v>
       </c>
       <c r="H10">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I10">
-        <v>13.902666136988</v>
+        <v>23.63224581015971</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>3.98740480265445</v>
+        <v>6.777932341354235</v>
       </c>
       <c r="C11">
-        <v>0.3187666584256303</v>
+        <v>0.5418508905968565</v>
       </c>
       <c r="D11">
-        <v>0.8201719197886471</v>
+        <v>1.394157366943366</v>
       </c>
       <c r="E11">
-        <v>2.419489943482575</v>
+        <v>4.112734961495462</v>
       </c>
       <c r="F11">
-        <v>0.6007494639374372</v>
+        <v>1.021175281216022</v>
       </c>
       <c r="G11">
-        <v>1.3295370690835</v>
+        <v>2.259994343581903</v>
       </c>
       <c r="H11">
-        <v>0.08129404437908209</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="I11">
-        <v>9.557413901751321</v>
+        <v>16.2460316899013</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>2.496247221496482</v>
+        <v>4.243209709566804</v>
       </c>
       <c r="C12">
-        <v>0.2732285643648258</v>
+        <v>0.4644436205115914</v>
       </c>
       <c r="D12">
-        <v>0.1491221672342994</v>
+        <v>0.2534831576260667</v>
       </c>
       <c r="E12">
-        <v>1.360963093208948</v>
+        <v>2.313413415841197</v>
       </c>
       <c r="F12">
-        <v>0.2278704863210969</v>
+        <v>0.3873423480474567</v>
       </c>
       <c r="G12">
-        <v>0.9140567349949059</v>
+        <v>1.553746111212558</v>
       </c>
       <c r="I12">
-        <v>5.421488267620559</v>
+        <v>9.215638362805675</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>1.466442262133248</v>
+        <v>2.492710654464986</v>
       </c>
       <c r="C13">
-        <v>0.1366142821824129</v>
+        <v>0.2322218102557957</v>
       </c>
       <c r="D13">
-        <v>0.1491221672342994</v>
+        <v>0.2534831576260667</v>
       </c>
       <c r="E13">
-        <v>0.6804815466044742</v>
+        <v>1.156706707920599</v>
       </c>
       <c r="F13">
-        <v>0.6007494639374372</v>
+        <v>1.021175281216022</v>
       </c>
       <c r="G13">
-        <v>1.3295370690835</v>
+        <v>2.259994343581903</v>
       </c>
       <c r="I13">
-        <v>4.362946791175371</v>
+        <v>7.416291955065372</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.8897514848898358</v>
+        <v>1.512431183607969</v>
       </c>
       <c r="C14">
-        <v>0.1138452351520108</v>
+        <v>0.1935181752131631</v>
       </c>
       <c r="D14">
-        <v>0.2236832508514493</v>
+        <v>0.3802247364390999</v>
       </c>
       <c r="E14">
-        <v>0.07560906073383046</v>
+        <v>0.1285229675467332</v>
       </c>
       <c r="F14">
-        <v>0.6214649626939006</v>
+        <v>1.056388221947609</v>
       </c>
       <c r="G14">
-        <v>1.080248868630344</v>
+        <v>1.836245404160296</v>
       </c>
       <c r="I14">
-        <v>3.00460286295137</v>
+        <v>5.10733068891487</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,28 +806,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.7826517691160593</v>
+        <v>1.33037928187738</v>
       </c>
       <c r="C15">
-        <v>0.2049214232736194</v>
+        <v>0.3483327153836935</v>
       </c>
       <c r="D15">
-        <v>0.1491221672342994</v>
+        <v>0.2534831576260667</v>
       </c>
       <c r="E15">
-        <v>0.2268271822014913</v>
+        <v>0.3855689026401996</v>
       </c>
       <c r="F15">
-        <v>0.3728789776163404</v>
+        <v>0.6338329331685655</v>
       </c>
       <c r="G15">
-        <v>1.080248868630344</v>
+        <v>1.836245404160296</v>
       </c>
       <c r="H15">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I15">
-        <v>2.857297410261694</v>
+        <v>4.856935647212929</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,25 +835,25 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.6920289326920941</v>
+        <v>1.176335365028421</v>
       </c>
       <c r="C16">
-        <v>0.06830714109120646</v>
+        <v>0.1161109051278979</v>
       </c>
       <c r="D16">
-        <v>0.1491221672342994</v>
+        <v>0.2534831576260667</v>
       </c>
       <c r="E16">
-        <v>0.6048724858706437</v>
+        <v>1.028183740373866</v>
       </c>
       <c r="F16">
-        <v>0.3314479801034136</v>
+        <v>0.5634070517053915</v>
       </c>
       <c r="G16">
-        <v>1.080248868630344</v>
+        <v>1.836245404160296</v>
       </c>
       <c r="I16">
-        <v>2.926027575622001</v>
+        <v>4.973765624021939</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,28 +861,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>1.787741409454577</v>
+        <v>3.038866359656754</v>
       </c>
       <c r="C17">
-        <v>0.2049214232736194</v>
+        <v>0.3483327153836935</v>
       </c>
       <c r="D17">
-        <v>0.5964886689371978</v>
+        <v>1.013932630504267</v>
       </c>
       <c r="E17">
-        <v>0.4536543644029825</v>
+        <v>0.7711378052803992</v>
       </c>
       <c r="F17">
-        <v>0.8079044515020709</v>
+        <v>1.373304688531892</v>
       </c>
       <c r="G17">
-        <v>1.911209536807531</v>
+        <v>3.248741868898986</v>
       </c>
       <c r="H17">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I17">
-        <v>5.80256687656752</v>
+        <v>9.863409320612719</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -890,28 +890,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>4.679433735346541</v>
+        <v>7.954267706382653</v>
       </c>
       <c r="C18">
-        <v>0.1593833292128151</v>
+        <v>0.2709254452984283</v>
       </c>
       <c r="D18">
-        <v>1.342099505108695</v>
+        <v>2.2813484186346</v>
       </c>
       <c r="E18">
-        <v>2.721926186417897</v>
+        <v>4.626826831682394</v>
       </c>
       <c r="F18">
-        <v>0.9529129427973143</v>
+        <v>1.619795273653001</v>
       </c>
       <c r="G18">
-        <v>4.237899407703655</v>
+        <v>7.203731970167315</v>
       </c>
       <c r="H18">
-        <v>0.1625880887581642</v>
+        <v>0.2763730094269123</v>
       </c>
       <c r="I18">
-        <v>14.25624319534508</v>
+        <v>24.2332686552453</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>9.004614564672133</v>
+        <v>15.30636373781029</v>
       </c>
       <c r="C19">
-        <v>0.3870737995168366</v>
+        <v>0.6579617957247544</v>
       </c>
       <c r="D19">
-        <v>1.938588174045894</v>
+        <v>3.295281049138867</v>
       </c>
       <c r="E19">
-        <v>5.368243312101962</v>
+        <v>9.12513069581806</v>
       </c>
       <c r="F19">
-        <v>1.822963890568775</v>
+        <v>3.098738784379654</v>
       </c>
       <c r="G19">
-        <v>5.982916810875747</v>
+        <v>10.16997454611857</v>
       </c>
       <c r="H19">
-        <v>0.2438821331372464</v>
+        <v>0.4145595141403686</v>
       </c>
       <c r="I19">
-        <v>24.74828268491859</v>
+        <v>42.06801012313056</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>15.49650502849796</v>
+        <v>26.34150978117214</v>
       </c>
       <c r="C20">
-        <v>0.432611893577641</v>
+        <v>0.7353690658100197</v>
       </c>
       <c r="D20">
-        <v>2.609637926600241</v>
+        <v>4.435955258456166</v>
       </c>
       <c r="E20">
-        <v>6.502379223109418</v>
+        <v>11.05297520901906</v>
       </c>
       <c r="F20">
-        <v>2.257989364454506</v>
+        <v>3.83821053974298</v>
       </c>
       <c r="G20">
-        <v>8.392702748589592</v>
+        <v>14.26621429386077</v>
       </c>
       <c r="H20">
-        <v>0.2438821331372464</v>
+        <v>0.4145595141403686</v>
       </c>
       <c r="I20">
-        <v>35.93570831796661</v>
+        <v>61.0847936622015</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>17.3501539553518</v>
+        <v>29.49240808035541</v>
       </c>
       <c r="C21">
-        <v>0.4781499876384451</v>
+        <v>0.812776335895285</v>
       </c>
       <c r="D21">
-        <v>3.429809846388888</v>
+        <v>5.830112625399535</v>
       </c>
       <c r="E21">
-        <v>5.519461433569623</v>
+        <v>9.382176630911527</v>
       </c>
       <c r="F21">
-        <v>2.568721845801456</v>
+        <v>4.366404650716784</v>
       </c>
       <c r="G21">
-        <v>10.05462408494397</v>
+        <v>17.09120722333815</v>
       </c>
       <c r="H21">
-        <v>1.666527909771183</v>
+        <v>2.832823346625852</v>
       </c>
       <c r="I21">
-        <v>41.06744906346537</v>
+        <v>69.80790889324253</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>12.11874476178656</v>
+        <v>20.59987288043817</v>
       </c>
       <c r="C22">
-        <v>0.7513785520032713</v>
+        <v>1.277219956406877</v>
       </c>
       <c r="D22">
-        <v>3.429809846388888</v>
+        <v>5.830112625399535</v>
       </c>
       <c r="E22">
-        <v>4.99019800843281</v>
+        <v>8.482515858084389</v>
       </c>
       <c r="F22">
-        <v>3.52163478859877</v>
+        <v>5.986199924369786</v>
       </c>
       <c r="G22">
-        <v>17.94875043262725</v>
+        <v>30.50992363835568</v>
       </c>
       <c r="H22">
-        <v>0.2438821331372464</v>
+        <v>0.4145595141403686</v>
       </c>
       <c r="I22">
-        <v>43.0043985229748</v>
+        <v>73.10040439719481</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>8.526785063527587</v>
+        <v>14.49413217624304</v>
       </c>
       <c r="C23">
-        <v>0.5464571287296517</v>
+        <v>0.9288872410231829</v>
       </c>
       <c r="D23">
-        <v>2.75876009383454</v>
+        <v>4.689438416082234</v>
       </c>
       <c r="E23">
-        <v>4.082889279626846</v>
+        <v>6.940240247523591</v>
       </c>
       <c r="F23">
-        <v>4.453832232639621</v>
+        <v>7.570782257291199</v>
       </c>
       <c r="G23">
-        <v>16.45302122990831</v>
+        <v>27.96743000182605</v>
       </c>
       <c r="H23">
-        <v>0.4877642662744927</v>
+        <v>0.8291190282807372</v>
       </c>
       <c r="I23">
-        <v>37.30950929454105</v>
+        <v>63.42002936827003</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>9.606020660940258</v>
+        <v>16.32865518598974</v>
       </c>
       <c r="C24">
-        <v>0.8424547401248796</v>
+        <v>1.432034496577407</v>
       </c>
       <c r="D24">
-        <v>2.236832508514493</v>
+        <v>3.802247364391001</v>
       </c>
       <c r="E24">
-        <v>3.856062097425353</v>
+        <v>6.554671344883392</v>
       </c>
       <c r="F24">
-        <v>4.122384252536206</v>
+        <v>7.007375205585808</v>
       </c>
       <c r="G24">
-        <v>20.60782457079425</v>
+        <v>35.0299123255195</v>
       </c>
       <c r="H24">
-        <v>1.056822576928067</v>
+        <v>1.796424561274931</v>
       </c>
       <c r="I24">
-        <v>42.32840140726351</v>
+        <v>71.95132048422178</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>8.971660805972512</v>
+        <v>15.25034776804702</v>
       </c>
       <c r="C25">
-        <v>0.7741475990336733</v>
+        <v>1.315923591449509</v>
       </c>
       <c r="D25">
-        <v>3.653493097240338</v>
+        <v>6.210337361838633</v>
       </c>
       <c r="E25">
-        <v>5.06580706916664</v>
+        <v>8.611038825631125</v>
       </c>
       <c r="F25">
-        <v>3.542350287355234</v>
+        <v>6.021412865101372</v>
       </c>
       <c r="G25">
-        <v>20.19234423670565</v>
+        <v>34.32366409315015</v>
       </c>
       <c r="H25">
-        <v>0.4877642662744927</v>
+        <v>0.8291190282807372</v>
       </c>
       <c r="I25">
-        <v>42.68756736174854</v>
+        <v>72.56184353349856</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>9.136429599470624</v>
+        <v>15.53042761686332</v>
       </c>
       <c r="C26">
-        <v>0.4781499876384451</v>
+        <v>0.812776335895285</v>
       </c>
       <c r="D26">
-        <v>2.609637926600241</v>
+        <v>4.435955258456166</v>
       </c>
       <c r="E26">
-        <v>3.553625854490031</v>
+        <v>6.040579474696461</v>
       </c>
       <c r="F26">
-        <v>3.58378128486816</v>
+        <v>6.091838746564546</v>
       </c>
       <c r="G26">
-        <v>22.10355377351318</v>
+        <v>37.57240596204915</v>
       </c>
       <c r="H26">
-        <v>0.4877642662744927</v>
+        <v>0.8291190282807372</v>
       </c>
       <c r="I26">
-        <v>41.95294269285518</v>
+        <v>71.31310242280567</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>10.35571867135669</v>
+        <v>17.60301849810387</v>
       </c>
       <c r="C27">
-        <v>0.3415357054560323</v>
+        <v>0.5805545256394893</v>
       </c>
       <c r="D27">
-        <v>5.144714769583333</v>
+        <v>8.745168938099299</v>
       </c>
       <c r="E27">
-        <v>3.931671158159183</v>
+        <v>6.683194312430128</v>
       </c>
       <c r="F27">
-        <v>3.58378128486816</v>
+        <v>6.091838746564546</v>
       </c>
       <c r="G27">
-        <v>13.96013922537675</v>
+        <v>23.72994060760998</v>
       </c>
       <c r="H27">
-        <v>0.812940443790821</v>
+        <v>1.381865047134561</v>
       </c>
       <c r="I27">
-        <v>38.13050125859097</v>
+        <v>64.81558067558187</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>10.78411753445179</v>
+        <v>18.33122610502621</v>
       </c>
       <c r="C28">
-        <v>0.6375333168512606</v>
+        <v>1.083701781193713</v>
       </c>
       <c r="D28">
-        <v>2.535076842983091</v>
+        <v>4.309213679643134</v>
       </c>
       <c r="E28">
-        <v>3.704843975957692</v>
+        <v>6.297625409789927</v>
       </c>
       <c r="F28">
-        <v>3.83236726994572</v>
+        <v>6.514394035343591</v>
       </c>
       <c r="G28">
-        <v>17.7825582989918</v>
+        <v>30.22742434540795</v>
       </c>
       <c r="H28">
-        <v>0.6097053328431158</v>
+        <v>1.036398785350922</v>
       </c>
       <c r="I28">
-        <v>39.88620257202448</v>
+        <v>67.79998414175546</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>11.31137767364578</v>
+        <v>19.22748162123836</v>
       </c>
       <c r="C29">
-        <v>0.3187666584256303</v>
+        <v>0.5418508905968565</v>
       </c>
       <c r="D29">
-        <v>3.877176348091787</v>
+        <v>6.590562098277735</v>
       </c>
       <c r="E29">
-        <v>5.06580706916664</v>
+        <v>8.611038825631125</v>
       </c>
       <c r="F29">
-        <v>3.45948829232938</v>
+        <v>5.880561102175025</v>
       </c>
       <c r="G29">
-        <v>13.37846675765272</v>
+        <v>22.7411930822929</v>
       </c>
       <c r="H29">
-        <v>0.6097053328431158</v>
+        <v>1.036398785350922</v>
       </c>
       <c r="I29">
-        <v>38.02078813215504</v>
+        <v>64.62908640556292</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>15.1175368034523</v>
+        <v>25.69732612889466</v>
       </c>
       <c r="C30">
-        <v>0.5692261757600539</v>
+        <v>0.9675908760658154</v>
       </c>
       <c r="D30">
-        <v>3.05700442830314</v>
+        <v>5.196404731334367</v>
       </c>
       <c r="E30">
-        <v>4.838979886965149</v>
+        <v>8.225469922990925</v>
       </c>
       <c r="F30">
-        <v>2.257989364454506</v>
+        <v>3.83821053974298</v>
       </c>
       <c r="G30">
-        <v>9.971528018126246</v>
+        <v>16.94995757686427</v>
       </c>
       <c r="H30">
-        <v>0.5284112884640336</v>
+        <v>0.8982122806374654</v>
       </c>
       <c r="I30">
-        <v>36.34067596552543</v>
+        <v>61.7731720565305</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>14.65618418165757</v>
+        <v>24.91310255220904</v>
       </c>
       <c r="C31">
-        <v>0.8424547401248796</v>
+        <v>1.432034496577407</v>
       </c>
       <c r="D31">
-        <v>2.385954675748791</v>
+        <v>4.055730522017067</v>
       </c>
       <c r="E31">
-        <v>7.334078891181552</v>
+        <v>12.46672785203313</v>
       </c>
       <c r="F31">
-        <v>1.077205935336094</v>
+        <v>1.831072918042523</v>
       </c>
       <c r="G31">
-        <v>5.068860075880845</v>
+        <v>8.616228434906006</v>
       </c>
       <c r="H31">
-        <v>0.08129404437908209</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="I31">
-        <v>31.44603254430881</v>
+        <v>53.45308328049863</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>12.54714362488166</v>
+        <v>21.32808048736053</v>
       </c>
       <c r="C32">
-        <v>1.024607116368097</v>
+        <v>1.741663576918468</v>
       </c>
       <c r="D32">
-        <v>1.714904923194444</v>
+        <v>2.915056312699767</v>
       </c>
       <c r="E32">
-        <v>6.426770162375589</v>
+        <v>10.92445224147232</v>
       </c>
       <c r="F32">
-        <v>1.118636932849021</v>
+        <v>1.901498799505696</v>
       </c>
       <c r="G32">
-        <v>4.237899407703655</v>
+        <v>7.203731970167315</v>
       </c>
       <c r="H32">
-        <v>0.3251761775163284</v>
+        <v>0.5527460188538247</v>
       </c>
       <c r="I32">
-        <v>27.3951383448888</v>
+        <v>46.56722940697792</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>9.111714280445909</v>
+        <v>15.48841563954087</v>
       </c>
       <c r="C33">
-        <v>1.070145210428902</v>
+        <v>1.819070847003732</v>
       </c>
       <c r="D33">
-        <v>1.938588174045894</v>
+        <v>3.295281049138867</v>
       </c>
       <c r="E33">
-        <v>6.426770162375589</v>
+        <v>10.92445224147232</v>
       </c>
       <c r="F33">
-        <v>0.7457579552326807</v>
+        <v>1.267665866337131</v>
       </c>
       <c r="G33">
-        <v>2.659074138166999</v>
+        <v>4.519988687163806</v>
       </c>
       <c r="H33">
-        <v>0.3251761775163284</v>
+        <v>0.5527460188538247</v>
       </c>
       <c r="I33">
-        <v>22.2772260982123</v>
+        <v>37.86762034951055</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,25 +1354,25 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>6.80495117147226</v>
+        <v>11.5672977561128</v>
       </c>
       <c r="C34">
-        <v>0.8196856930944776</v>
+        <v>1.393330861534774</v>
       </c>
       <c r="D34">
-        <v>1.118416254257246</v>
+        <v>1.9011236821955</v>
       </c>
       <c r="E34">
-        <v>4.234107401094507</v>
+        <v>7.197286182617058</v>
       </c>
       <c r="F34">
-        <v>0.4350254738857304</v>
+        <v>0.7394717553633264</v>
       </c>
       <c r="G34">
-        <v>2.659074138166999</v>
+        <v>4.519988687163806</v>
       </c>
       <c r="I34">
-        <v>16.07126013197122</v>
+        <v>27.31849892498727</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>4.745341252745788</v>
+        <v>8.066299645909169</v>
       </c>
       <c r="C35">
-        <v>0.4098428465472388</v>
+        <v>0.6966654307673871</v>
       </c>
       <c r="D35">
-        <v>0.7456108361714974</v>
+        <v>1.267415788130333</v>
       </c>
       <c r="E35">
-        <v>3.478016793756201</v>
+        <v>5.912056507149727</v>
       </c>
       <c r="F35">
-        <v>0.4557409726421938</v>
+        <v>0.7746846960949134</v>
       </c>
       <c r="G35">
-        <v>1.578825269536656</v>
+        <v>2.683743283003509</v>
       </c>
       <c r="H35">
-        <v>0.08129404437908209</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="I35">
-        <v>11.49467201577866</v>
+        <v>19.53905185576849</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>2.710446653044034</v>
+        <v>4.607313513027979</v>
       </c>
       <c r="C36">
-        <v>0.8879928341856842</v>
+        <v>1.509441766662672</v>
       </c>
       <c r="D36">
-        <v>0.07456108361714972</v>
+        <v>0.1267415788130334</v>
       </c>
       <c r="E36">
-        <v>1.66339933614427</v>
+        <v>2.827505286028131</v>
       </c>
       <c r="F36">
-        <v>1.346507419170118</v>
+        <v>2.288841147553153</v>
       </c>
       <c r="G36">
-        <v>2.243593804078406</v>
+        <v>3.81374045479446</v>
       </c>
       <c r="H36">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I36">
-        <v>8.967148152429203</v>
+        <v>15.24267699923616</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>1.433488503433624</v>
+        <v>2.436694684701728</v>
       </c>
       <c r="C37">
-        <v>0.4553809406080431</v>
+        <v>0.7740727008526525</v>
       </c>
       <c r="D37">
-        <v>0.07456108361714972</v>
+        <v>0.1267415788130334</v>
       </c>
       <c r="E37">
-        <v>0.6048724858706437</v>
+        <v>1.028183740373866</v>
       </c>
       <c r="F37">
-        <v>0.8493354490149976</v>
+        <v>1.443730569995066</v>
       </c>
       <c r="G37">
-        <v>1.745017403172094</v>
+        <v>2.966242575951247</v>
       </c>
       <c r="H37">
-        <v>0.1219410665686232</v>
+        <v>0.2072797570701843</v>
       </c>
       <c r="I37">
-        <v>5.284596932285175</v>
+        <v>8.982945607757777</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,25 +1467,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>1.029804959363235</v>
+        <v>1.750499055101816</v>
       </c>
       <c r="C38">
-        <v>0.1138452351520108</v>
+        <v>0.1935181752131631</v>
       </c>
       <c r="D38">
-        <v>0.1491221672342994</v>
+        <v>0.2534831576260667</v>
       </c>
       <c r="F38">
-        <v>0.5386029676680472</v>
+        <v>0.9155364590212615</v>
       </c>
       <c r="G38">
-        <v>1.661921336354375</v>
+        <v>2.824992929477379</v>
       </c>
       <c r="H38">
-        <v>0.2032351109477052</v>
+        <v>0.3454662617836404</v>
       </c>
       <c r="I38">
-        <v>3.696531776719673</v>
+        <v>6.283496038223326</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1493,25 +1493,25 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.7496980104164357</v>
+        <v>1.274363312114123</v>
       </c>
       <c r="C39">
-        <v>0.1593833292128151</v>
+        <v>0.2709254452984283</v>
       </c>
       <c r="D39">
-        <v>0.3728054180857487</v>
+        <v>0.6337078940651664</v>
       </c>
       <c r="F39">
-        <v>0.2485859850775602</v>
+        <v>0.4225552887790437</v>
       </c>
       <c r="G39">
-        <v>1.495729202718937</v>
+        <v>2.542493636529642</v>
       </c>
       <c r="H39">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I39">
-        <v>3.066848967701038</v>
+        <v>5.213138829143131</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1519,28 +1519,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.7579364500913411</v>
+        <v>1.288367304554936</v>
       </c>
       <c r="C40">
-        <v>0.1366142821824129</v>
+        <v>0.2322218102557957</v>
       </c>
       <c r="D40">
-        <v>0.1491221672342994</v>
+        <v>0.2534831576260667</v>
       </c>
       <c r="E40">
-        <v>0.6804815466044742</v>
+        <v>1.156706707920599</v>
       </c>
       <c r="F40">
-        <v>0.4143099751292671</v>
+        <v>0.7042588146317394</v>
       </c>
       <c r="G40">
-        <v>1.3295370690835</v>
+        <v>2.259994343581903</v>
       </c>
       <c r="H40">
-        <v>0.08129404437908209</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="I40">
-        <v>3.549295534704376</v>
+        <v>6.033218643284496</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1548,28 +1548,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>1.936033323602883</v>
+        <v>3.290938223591415</v>
       </c>
       <c r="C41">
-        <v>0.1821523762432173</v>
+        <v>0.3096290803410609</v>
       </c>
       <c r="D41">
-        <v>0.2982443344685989</v>
+        <v>0.5069663152521334</v>
       </c>
       <c r="E41">
-        <v>0.5292634251368133</v>
+        <v>0.8996607728271323</v>
       </c>
       <c r="F41">
-        <v>0.3935944763728037</v>
+        <v>0.6690458739001525</v>
       </c>
       <c r="G41">
-        <v>2.077401670442968</v>
+        <v>3.531241161846724</v>
       </c>
       <c r="H41">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I41">
-        <v>5.457336628456825</v>
+        <v>9.276574680115345</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,28 +1577,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>4.489949622823707</v>
+        <v>7.632175880243918</v>
       </c>
       <c r="C42">
-        <v>0.3643047524864346</v>
+        <v>0.6192581606821218</v>
       </c>
       <c r="D42">
-        <v>1.118416254257246</v>
+        <v>1.9011236821955</v>
       </c>
       <c r="E42">
-        <v>3.024362429353218</v>
+        <v>5.140918701869327</v>
       </c>
       <c r="F42">
-        <v>1.015059439066704</v>
+        <v>1.725434095847762</v>
       </c>
       <c r="G42">
-        <v>3.656226939979624</v>
+        <v>6.214984444850233</v>
       </c>
       <c r="H42">
-        <v>0.2438821331372464</v>
+        <v>0.4145595141403686</v>
       </c>
       <c r="I42">
-        <v>13.91220157110418</v>
+        <v>23.64845447982923</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1606,28 +1606,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>8.856322650523826</v>
+        <v>15.05429187387561</v>
       </c>
       <c r="C43">
-        <v>0.3870737995168366</v>
+        <v>0.6579617957247544</v>
       </c>
       <c r="D43">
-        <v>1.267538421491545</v>
+        <v>2.154606839821567</v>
       </c>
       <c r="E43">
-        <v>5.292634251368133</v>
+        <v>8.996607728271321</v>
       </c>
       <c r="F43">
-        <v>1.740101895542922</v>
+        <v>2.957887021453306</v>
       </c>
       <c r="G43">
-        <v>4.570283674974529</v>
+        <v>7.768730556062793</v>
       </c>
       <c r="H43">
-        <v>0.2438821331372464</v>
+        <v>0.4145595141403686</v>
       </c>
       <c r="I43">
-        <v>22.35783682655504</v>
+        <v>38.00464532934973</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1635,28 +1635,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>14.45022318978492</v>
+        <v>24.56300274118869</v>
       </c>
       <c r="C44">
-        <v>0.3187666584256303</v>
+        <v>0.5418508905968565</v>
       </c>
       <c r="D44">
-        <v>2.83332117745169</v>
+        <v>4.816179994895266</v>
       </c>
       <c r="E44">
-        <v>6.577988283843251</v>
+        <v>11.18149817656579</v>
       </c>
       <c r="F44">
-        <v>2.320135860723896</v>
+        <v>3.943849361937741</v>
       </c>
       <c r="G44">
-        <v>7.478646013594684</v>
+        <v>12.71246818264821</v>
       </c>
       <c r="H44">
-        <v>0.4877642662744927</v>
+        <v>0.8291190282807372</v>
       </c>
       <c r="I44">
-        <v>34.46684545009857</v>
+        <v>58.58796837611327</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1664,28 +1664,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>16.85584757485745</v>
+        <v>28.65216853390652</v>
       </c>
       <c r="C45">
-        <v>0.4781499876384451</v>
+        <v>0.812776335895285</v>
       </c>
       <c r="D45">
-        <v>3.206126595537439</v>
+        <v>5.449887888960432</v>
       </c>
       <c r="E45">
-        <v>5.670679555037285</v>
+        <v>9.639222566004992</v>
       </c>
       <c r="F45">
-        <v>2.320135860723896</v>
+        <v>3.943849361937741</v>
       </c>
       <c r="G45">
-        <v>8.725087015860467</v>
+        <v>14.83121287975624</v>
       </c>
       <c r="H45">
-        <v>0.9348815103594442</v>
+        <v>1.589144804204746</v>
       </c>
       <c r="I45">
-        <v>38.19090810001443</v>
+        <v>64.91826237066597</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1693,28 +1693,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>14.18659312018794</v>
+        <v>24.11487498308262</v>
       </c>
       <c r="C46">
-        <v>0.6603023638816625</v>
+        <v>1.122405416236346</v>
       </c>
       <c r="D46">
-        <v>4.026298515326086</v>
+        <v>6.844045255903801</v>
       </c>
       <c r="E46">
-        <v>5.06580706916664</v>
+        <v>8.611038825631125</v>
       </c>
       <c r="F46">
-        <v>4.433116733883158</v>
+        <v>7.535569316559611</v>
       </c>
       <c r="G46">
-        <v>16.8685015639969</v>
+        <v>28.6736782341954</v>
       </c>
       <c r="H46">
-        <v>0.7316463994117391</v>
+        <v>1.243678542421105</v>
       </c>
       <c r="I46">
-        <v>45.97226576585413</v>
+        <v>78.14529057403001</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1722,28 +1722,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>9.721358816388939</v>
+        <v>16.52471108016114</v>
       </c>
       <c r="C47">
-        <v>0.8196856930944776</v>
+        <v>1.393330861534774</v>
       </c>
       <c r="D47">
-        <v>2.311393592131642</v>
+        <v>3.928988943204032</v>
       </c>
       <c r="E47">
-        <v>4.460934583295996</v>
+        <v>7.582855085257261</v>
       </c>
       <c r="F47">
-        <v>5.427460674193399</v>
+        <v>9.225790471675788</v>
       </c>
       <c r="G47">
-        <v>11.88273755493378</v>
+        <v>20.19869944576325</v>
       </c>
       <c r="H47">
-        <v>0.6909993772221978</v>
+        <v>1.174585290064378</v>
       </c>
       <c r="I47">
-        <v>35.31457029126044</v>
+        <v>60.02896117766063</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1751,28 +1751,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>10.66054093932821</v>
+        <v>18.12116621841399</v>
       </c>
       <c r="C48">
-        <v>0.9335309282464883</v>
+        <v>1.586849036747937</v>
       </c>
       <c r="D48">
-        <v>5.59208127128623</v>
+        <v>9.505618410977501</v>
       </c>
       <c r="E48">
-        <v>4.76337082623132</v>
+        <v>8.09694695544419</v>
       </c>
       <c r="F48">
-        <v>5.24102118538523</v>
+        <v>8.908874005091505</v>
       </c>
       <c r="G48">
-        <v>15.5389644949134</v>
+        <v>26.41368389061351</v>
       </c>
       <c r="H48">
-        <v>0.9755285325489854</v>
+        <v>1.658238056561474</v>
       </c>
       <c r="I48">
-        <v>43.70503817793988</v>
+        <v>74.29137657385012</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1780,28 +1780,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>8.971660805972512</v>
+        <v>15.25034776804702</v>
       </c>
       <c r="C49">
-        <v>0.7741475990336733</v>
+        <v>1.315923591449509</v>
       </c>
       <c r="D49">
-        <v>3.653493097240338</v>
+        <v>6.210337361838633</v>
       </c>
       <c r="E49">
-        <v>5.06580706916664</v>
+        <v>8.611038825631125</v>
       </c>
       <c r="F49">
-        <v>3.542350287355234</v>
+        <v>6.021412865101372</v>
       </c>
       <c r="G49">
-        <v>20.19234423670565</v>
+        <v>34.32366409315015</v>
       </c>
       <c r="H49">
-        <v>0.4877642662744927</v>
+        <v>0.8291190282807372</v>
       </c>
       <c r="I49">
-        <v>42.68756736174854</v>
+        <v>72.56184353349856</v>
       </c>
     </row>
   </sheetData>
